--- a/docs/PPG/Bibliografia.xlsx
+++ b/docs/PPG/Bibliografia.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/PPGCR Unisuam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF5147D-DB05-4443-B558-BAE2D9F0ED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478926FD-79ED-394E-B42A-3815F3977DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bibliografia" sheetId="53" r:id="rId1"/>
+    <sheet name="Ementas" sheetId="55" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk95925701" localSheetId="0">Bibliografia!$B$22</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="212">
   <si>
     <t>Disciplina</t>
   </si>
@@ -2724,15 +2725,40 @@
       </rPr>
       <t>. 2013;17:328-35. DOI: 10.1590/S1413-35552013005000097.</t>
     </r>
+  </si>
+  <si>
+    <t>Publicação</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Abrir</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19K9Cqc44FUK_gDi11W2Un4VFIRh9Pr1a/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>2022-1</t>
+  </si>
+  <si>
+    <t>Estrutura curricular</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2841,6 +2867,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2859,1315 +2901,1317 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1304">
+  <cellStyleXfs count="1306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4179,23 +4223,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1304" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1304" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1304" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1304"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1305"/>
   </cellXfs>
-  <cellStyles count="1304">
+  <cellStyles count="1306">
     <cellStyle name="Hiperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="71" builtinId="8" hidden="1"/>
@@ -4847,6 +4896,7 @@
     <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink 2" xfId="1305" xr:uid="{9759DC69-EC75-2D42-BCEE-7B94CACB449E}"/>
     <cellStyle name="Hiperlink Visitado" xfId="456" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperlink Visitado" xfId="458" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperlink Visitado" xfId="462" builtinId="9" hidden="1"/>
@@ -5500,6 +5550,7 @@
     <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1303" xr:uid="{431EB47B-57A1-FA49-B261-FAC5136EC77B}"/>
+    <cellStyle name="Normal 3" xfId="1304" xr:uid="{07EC137F-8255-1C4C-ADE5-411080D01C53}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5845,7 +5896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A53FF6B-77E2-0244-AF64-074339757D14}">
   <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7333,4 +7384,48 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C7F29-06ED-8E48-8953-73E27C08C069}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="79" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{63AF5609-1F3E-A84A-AA1C-CA8B7C063455}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Bibliografia.xlsx
+++ b/docs/PPG/Bibliografia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478926FD-79ED-394E-B42A-3815F3977DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39920BB2-298F-BD40-83DF-1397B05F7D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2736,13 +2736,13 @@
     <t>Abrir</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/19K9Cqc44FUK_gDi11W2Un4VFIRh9Pr1a/view?usp=sharing</t>
-  </si>
-  <si>
     <t>2022-1</t>
   </si>
   <si>
     <t>Estrutura curricular</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aqO9Pc2rAvlEGo86O6EVBAJL2CMBS_Eq/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -2901,7 +2901,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1306">
+  <cellStyleXfs count="1307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4208,6 +4208,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4242,9 +4243,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1304" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1304" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1304"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1305"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1306"/>
   </cellXfs>
-  <cellStyles count="1306">
+  <cellStyles count="1307">
     <cellStyle name="Hiperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="71" builtinId="8" hidden="1"/>
@@ -4896,6 +4897,7 @@
     <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1306" builtinId="8"/>
     <cellStyle name="Hiperlink 2" xfId="1305" xr:uid="{9759DC69-EC75-2D42-BCEE-7B94CACB449E}"/>
     <cellStyle name="Hiperlink Visitado" xfId="456" builtinId="9" hidden="1"/>
     <cellStyle name="Hiperlink Visitado" xfId="458" builtinId="9" hidden="1"/>
@@ -7413,13 +7415,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Bibliografia.xlsx
+++ b/docs/PPG/Bibliografia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39920BB2-298F-BD40-83DF-1397B05F7D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE1F41-94C0-D64A-8660-73DFE5CA541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
     <t>Estrutura curricular</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1aqO9Pc2rAvlEGo86O6EVBAJL2CMBS_Eq/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1aqO9Pc2rAvlEGo86O6EVBAJL2CMBS_Eq</t>
   </si>
 </sst>
 </file>
@@ -4210,18 +4210,18 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4229,9 +4229,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -6143,7 +6140,7 @@
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6367,7 +6364,7 @@
       <c r="A58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6375,7 +6372,7 @@
       <c r="A59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6383,7 +6380,7 @@
       <c r="A60" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6391,7 +6388,7 @@
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6399,7 +6396,7 @@
       <c r="A62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6407,7 +6404,7 @@
       <c r="A63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>175</v>
       </c>
     </row>
@@ -6415,7 +6412,7 @@
       <c r="A64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6423,7 +6420,7 @@
       <c r="A65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6431,7 +6428,7 @@
       <c r="A66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>178</v>
       </c>
     </row>
@@ -6439,7 +6436,7 @@
       <c r="A67" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6855,7 +6852,7 @@
       <c r="A119" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -7175,7 +7172,7 @@
       <c r="A159" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="2" t="s">
         <v>132</v>
       </c>
     </row>
@@ -7223,7 +7220,7 @@
       <c r="A165" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7396,31 +7393,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="79" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="9.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="79" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>211</v>
       </c>
     </row>

--- a/docs/PPG/Bibliografia.xlsx
+++ b/docs/PPG/Bibliografia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFE1F41-94C0-D64A-8660-73DFE5CA541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745EA803-6896-964B-984D-EF9AC55046D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bibliografia" sheetId="53" r:id="rId1"/>
@@ -362,6 +362,186 @@
   </si>
   <si>
     <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     PETERSON, A.; LARGENT, E. A.; KARLAWISH, J. Ethics of reallocating ventilators in the COVID-19 pandemic. British Medical Journal, v. 369, pp. m1828, 2020. DOI: 10.1136/bmj.m1828</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10. VARKEY, B.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Principles of clinical ethics and their application to practice. Medical Principles and Practice, v. 30, n. 1, pp. 17-28, 2021. doi: 10.1159/000509119</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AARONS, D. E. Exploring the risk/benefit balance in biomedical research: some considerations. Revista Bioética, 2017, v. 25, p. 320-327.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ALTMAN, D. G.; SIMERA, I.; HOEY, J.; MOHER, D.; SCHULZ, K. EQUATOR: reporting guidelines for health research. Open Med, 2008, v. 2, n. 2, p. e49-50.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSELHO NACIONAL DE SAÚDE. Manual de Pesquisador: Plataforma Brasil: 98 p. 2018.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COSTA, L. O. P.; MAHER, C. G.; LOPES, A. D.; NORONHA, M. A. D.; COSTA, L. C. M. Transparent reporting of studies relevant to physical therapy practice. Brazilian Journal of Physical Therapy, 2011, v. 15, p. 267-271.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HULLEY, S. B.; CUMMINGS, S. R.; BROWNER, W. S.; GRADY, D. G.; NEWMAN, T. B. Delineando a Pesquisa Clínica 4 ed.  Artmed, 2015. 400.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MINISTÉRIO DA CIÊNCIA TECNOLOGIA INOVAÇÕES E COMUNICAÇÕES. Plano de Ação em Ciência, Tecnologia e Inovação para Saúde. Brasília: 36 p. 2018.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>7.</t>
     </r>
     <r>
@@ -372,7 +552,190 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     KIPPER, D. J.; MARQUES, C. C.; FEIJÓ, A. Ética em pesquisa: reflexões. (1ª Edição). Porto Alegre. Editora PUCRS, 2003. ISBN: 857430-3550</t>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WEINBERGER, C. J.; EVANS, J. A.; ALLESINA, S. Ten simple (empirical) rules for writing science. PLoS Comput Biol, Apr 2015, v. 11, n. 4, p. e1004205.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     ALMEIDA, R.S.; BOURLIATAUX-LAJOINIE, S.; MARTINS, M. Instrumentos para mensuração da satisfação dos usuários de serviços de saúde: revisão sistemática. Cad. Saúde Pública. 2015;31(1):11-25.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     BEATON, D.E. Et al. Guidelines for the process of cross-cultural adaptation of self-report measures. Spine. 2000;25(24):3186-9.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     BRÉDART, A. Interviewing to develop Patient-Reported Outcome (PRO) measures for clinical research: eliciting patients’ experience. Health and Quality of Life Outcomes, v. 12, p. 15, 2014. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     GUYATT GORDON H, OXMAN ANDREW D, VIST GUNN E, KUNZ REGINA, FALCK-YTTER YNGVE, ALONSO-COELLO PABLO ET AL. GRADE: an emerging consensus on rating quality of evidence and strength of recommendations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BMJ. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2008;336:924.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     MCGOWAN J, SAMPSON M, SALZWEDEL DM, COGO E, FOERSTER V, LEFEBVRE C. PRESS Peer Review of Electronic Search Strategies: 2015 Guideline Statement. J Clin Epidemiol. 2016;75:40-6.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MOHER D, LIBERATI A, TETZLAFF J, ALTMAN DG, The PRISMA Group (2009). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Preferred Reporting Items for Systematic Reviews and Meta-Analyses:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The PRISMA Statement. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BMJ. 2009;339:b2535.</t>
     </r>
   </si>
   <si>
@@ -387,7 +750,37 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     PETERSON, A.; LARGENT, E. A.; KARLAWISH, J. Ethics of reallocating ventilators in the COVID-19 pandemic. British Medical Journal, v. 369, pp. m1828, 2020. DOI: 10.1136/bmj.m1828</t>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MOKKINK, L.B. et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00167C"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The COSMIN checklist for evaluating the methodological quality of studies on measurement properties: A clarification of its content. BMC Med Res Method.2010;10:22.</t>
     </r>
   </si>
   <si>
@@ -402,22 +795,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     SMITH E, HUNT M, MASTER Z. Authorship ethics in global health research partnerships between researchers from low or middle income countries and high income countries. BMC Medical Ethics, v. 15, pp. 42, 2014. DOI: 10.1186/1472-6939-15-42</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10. VARKEY, B.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Principles of clinical ethics and their application to practice. Medical Principles and Practice, v. 30, n. 1, pp. 17-28, 2021. doi: 10.1159/000509119</t>
+      <t>     REICHENHEIM, M.E.; HÖKERBERG, Y.H.M.; MORAES, C.L. Assessing construct structural validity of epidemiological measurement tools: a seven-step roadmap. Cad. Saúde Pública. 2014;30(5):927-939.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  TERWEE, C.B. et al. Rating the methodological quality in systematic reviews of studies on measurement properties: a scoring system for the COSMIN checklist</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Qual Life Res. 2011;21:651–657.</t>
     </r>
   </si>
   <si>
@@ -432,6 +846,117 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>     ADLER, M.J. Knowledge and opinion. In: _____.Ten Philosophical Mistakes. New York: MacMillan Publishing Company, 1985. p. 83-107.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     HACKING, I. Ensaio introdutório. In: KUHN, T.S. A estrutura das revoluções científicas, 12ª ed.: São Paulo: Perspectiva, 2013. p. 9-47.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     MAYR, E.  ¿Qué es la ciencia? In: _____ Así es la biologia. Madrid: Editorial Debate, S.A., 1998. p. 39-59.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     McINERNY, D.Q. Use a lógica: Um guia para o pensamento eficaz. Rio de Janeiro: Best</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Seller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2010.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     POPPER, K. Colocação de alguns problemas fundamentais. In: _____ A lógica da pesquisa científica. São Paulo: Cultrix, 2013. p. 27-44.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     TOLSTÓI, L. Ciência moderna. In: _____. Os últimos dias. São Paulo: Penguin Classics Companhia das Letras, 2011. p. 124-134.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">     </t>
     </r>
     <r>
@@ -442,7 +967,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>AARONS, D. E. Exploring the risk/benefit balance in biomedical research: some considerations. Revista Bioética, 2017, v. 25, p. 320-327.</t>
+      <t>Altman, D. G.; Simera, I.; Hoey, J.; Moher, D.; Schulz, K. EQUATOR: reporting guidelines for health research. Open Med, 2008, v. 2, n. 2, p. e49-50.</t>
     </r>
   </si>
   <si>
@@ -467,7 +992,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ALTMAN, D. G.; SIMERA, I.; HOEY, J.; MOHER, D.; SCHULZ, K. EQUATOR: reporting guidelines for health research. Open Med, 2008, v. 2, n. 2, p. e49-50.</t>
+      <t>Annesley, T. M. "It was a cold and rainy night": set the scene with a good introduction. Clin Chem, May 2010, v. 56, n. 5, p. 708-13.</t>
     </r>
   </si>
   <si>
@@ -482,6 +1007,81 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>     Mensh B, Kording K (2017) Ten simple rules for structuring papers. PLoS Comput Biol 13(9): e1005619. https://doi.org/10.1371/journal. pcbi.1005619</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     Pereira, M.G. A seção de método de um artigo científico. Epidemiol. Sev. Saúde 2013; 22(1):183-184.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     Pereira, M.G. A seção de resultados de um artigo científico. Epidemiol. Sev. Saúde 2013; 22(2):353-354.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     Pereira, M.G. Dez passos para produzir um artigo científico de sucesso. Epidemiol. Sev. Saúde 2017; 26(3):661-664.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     Pereira, M.G. Estrutura do artigo científico. Epidemiol. Sev. Saúde 2012; 21(2):351-352.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">     </t>
     </r>
     <r>
@@ -492,7 +1092,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CONSELHO NACIONAL DE SAÚDE. Manual de Pesquisador: Plataforma Brasil: 98 p. 2018.</t>
+      <t>Skelton, J. R.; Edwards, S. J. The function of the discussion section in academic medical writing. BMJ, May 6 2000, v. 320, n. 7244, p. 1269-70.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  Vanden Bos, G. R. (Ed). (2010). Publication manual of the American Psychological Association (6th ed.). Washington, DC: American Psychological Association.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>      Blome C, Sondermann H, Augustin M. Accepted standards on how to give a Medical Research Presentation: a systematic review of expert opinion papers. GMS J Med Educ. 2017 Feb 15;34(1):Doc11. doi: 10.3205/zma001088.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>      Miquel J, Santana F, Barrera A, Torrens C. How do we deliver our findings? Analysis of podium presentations at shoulder meetings. J Orthop Surg Res. 2018 Sep 14;13(1):234. doi: 10.1186/s13018-018-0942-7.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>      Corwin LA, Prunuske A, Seidel SB. Scientific Presenting: Using Evidence-Based Classroom Practices to Deliver Effective Conference Presentations. CBE Life Sci Educ. 2018 Spring;17(1):es1. doi: 10.1187/cbe.17-07-0146.</t>
     </r>
   </si>
   <si>
@@ -507,17 +1167,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COSTA, L. O. P.; MAHER, C. G.; LOPES, A. D.; NORONHA, M. A. D.; COSTA, L. C. M. Transparent reporting of studies relevant to physical therapy practice. Brazilian Journal of Physical Therapy, 2011, v. 15, p. 267-271.</t>
+      <t>      Thor D, Xiao N, Zheng M, Ma R, Yu XX. An interactive online approach to small-group student presentations and discussions. Adv Physiol Educ. 2017 Dec 1;41(4):498-504. doi: 10.1152/advan.00019.2017.</t>
     </r>
   </si>
   <si>
@@ -532,17 +1182,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HULLEY, S. B.; CUMMINGS, S. R.; BROWNER, W. S.; GRADY, D. G.; NEWMAN, T. B. Delineando a Pesquisa Clínica 4 ed.  Artmed, 2015. 400.</t>
+      <t>      Vogel WH, Viale PH. Presenting With Confidence. J Adv Pract Oncol. 2018 Jul-Aug;9(5):545-548.</t>
     </r>
   </si>
   <si>
@@ -557,17 +1197,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MINISTÉRIO DA CIÊNCIA TECNOLOGIA INOVAÇÕES E COMUNICAÇÕES. Plano de Ação em Ciência, Tecnologia e Inovação para Saúde. Brasília: 36 p. 2018.</t>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212121"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grech V. Presenting scientific work-news media theory in presentations, abstracts, and posters. Saudi J Anaesth. 2019 Apr;13(Suppl 1):S59-S62. doi: 10.4103/sja.SJA_556_18.</t>
     </r>
   </si>
   <si>
@@ -582,17 +1222,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WEINBERGER, C. J.; EVANS, J. A.; ALLESINA, S. Ten simple (empirical) rules for writing science. PLoS Comput Biol, Apr 2015, v. 11, n. 4, p. e1004205.</t>
+      <t>      Nascimento DP, Gonzalez GZ, Araujo AC, Moseley AM, Maher CG, Costa LOP. Eight Out of Every Ten Abstracts of Low Back Pain Systematic Reviews Presented Spin and Inconsistencies With the Full Text: An Analysis of 66 Systematic Reviews. J Orthop Sports Phys Ther. 2020 Jan;50(1):17-23. doi: 10.2519/jospt.2020.8962.</t>
     </r>
   </si>
   <si>
@@ -607,7 +1237,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     ALMEIDA, R.S.; BOURLIATAUX-LAJOINIE, S.; MARTINS, M. Instrumentos para mensuração da satisfação dos usuários de serviços de saúde: revisão sistemática. Cad. Saúde Pública. 2015;31(1):11-25.</t>
+      <t xml:space="preserve">     Knudson DV, Morrison CS. Análise qualitativa do movimento humano. São Paulo: Manole, 2001. 3. Gordon Robertson, Graham Caldwell, Joseph Hamill, Saunders Whittlesey. Research Methods In Biomechanics 2nd Edition, 2014 </t>
     </r>
   </si>
   <si>
@@ -622,7 +1252,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     BEATON, D.E. Et al. Guidelines for the process of cross-cultural adaptation of self-report measures. Spine. 2000;25(24):3186-9.</t>
+      <t xml:space="preserve">     Perry J. Análise de marcha, marcha normal, patológica e sistema de análise (Volume 1, 2 3,). São Paulo: Manole, 2004. </t>
     </r>
   </si>
   <si>
@@ -637,7 +1267,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">     BRÉDART, A. Interviewing to develop Patient-Reported Outcome (PRO) measures for clinical research: eliciting patients’ experience. Health and Quality of Life Outcomes, v. 12, p. 15, 2014. </t>
+      <t>     Soderberg GL, Knustson LM. A guide for use and interpretation of kinesiologic electromyographic data. Physical Therapy 2000; 80(5): 485- 498.</t>
     </r>
   </si>
   <si>
@@ -652,38 +1282,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     GUYATT GORDON H, OXMAN ANDREW D, VIST GUNN E, KUNZ REGINA, FALCK-YTTER YNGVE, ALONSO-COELLO PABLO ET AL. GRADE: an emerging consensus on rating quality of evidence and strength of recommendations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">BMJ. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2008;336:924.</t>
+      <t>     Garcia MAC, TMM Vieira. Surface electromyography: Why, When and how to use it. Revista Andaluza de Medicina de Deporte 2011; 4(1): 17-28.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>     Dos Anjos F, Lemos T, Imbiriba LA. Does the type of visual feedback information change the control of standing balance? European Journal of Applied Physiology 2016; 116(9): 1771-1779.</t>
     </r>
   </si>
   <si>
@@ -698,7 +1312,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     MCGOWAN J, SAMPSON M, SALZWEDEL DM, COGO E, FOERSTER V, LEFEBVRE C. PRESS Peer Review of Electronic Search Strategies: 2015 Guideline Statement. J Clin Epidemiol. 2016;75:40-6.</t>
+      <t>     Leardini A, Belvedere C, Nardini F, Sancisi N, Conconi M, Parenti-Castelli V. Kinematic models of lower limb joints for musculo-skeletal modelling and optimization in gait analysis. J Biomech. 2017;62:77-86.</t>
     </r>
   </si>
   <si>
@@ -713,59 +1327,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MOHER D, LIBERATI A, TETZLAFF J, ALTMAN DG, The PRISMA Group (2009). </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Preferred Reporting Items for Systematic Reviews and Meta-Analyses:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The PRISMA Statement. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BMJ. 2009;339:b2535.</t>
+      <t>     de los Reyes-Guzman A, Dimbwadyo-Terrer I, Trincado-Alonso F, Monasterio-Huelin F, Torricelli D, Gil-Agudo A. Quantitative assessment based on kinematic measures of functional impairments during upper extremity movements: A review. Clin Biomech (Bristol, Avon). 2014;29(7):719-27.</t>
     </r>
   </si>
   <si>
@@ -780,37 +1342,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MOKKINK, L.B. et al.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00167C"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The COSMIN checklist for evaluating the methodological quality of studies on measurement properties: A clarification of its content. BMC Med Res Method.2010;10:22.</t>
+      <t>     Visser JE, Carpenter MG, van der Kooij H, Bloem BR. The clinical utility of posturography. Clin Neurophysiol 119(11):2424-2436, 2008.</t>
     </r>
   </si>
   <si>
@@ -825,58 +1357,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     REICHENHEIM, M.E.; HÖKERBERG, Y.H.M.; MORAES, C.L. Assessing construct structural validity of epidemiological measurement tools: a seven-step roadmap. Cad. Saúde Pública. 2014;30(5):927-939.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  TERWEE, C.B. et al. Rating the methodological quality in systematic reviews of studies on measurement properties: a scoring system for the COSMIN checklist</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Qual Life Res. 2011;21:651–657.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     ADLER, M.J. Knowledge and opinion. In: _____.Ten Philosophical Mistakes. New York: MacMillan Publishing Company, 1985. p. 83-107.</t>
+      <t>     Enoka R. Neuromechanics of Human Movement. Human Kinetics, 5rd., 2014.</t>
     </r>
   </si>
   <si>
@@ -891,7 +1372,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     HACKING, I. Ensaio introdutório. In: KUHN, T.S. A estrutura das revoluções científicas, 12ª ed.: São Paulo: Perspectiva, 2013. p. 9-47.</t>
+      <t>     Helen Basturkmen, Martin East &amp; John Bitchener (2014) Supervisors' on-script feedback comments on drafts of dissertations: socialising students into the academic discourse community, Teaching in Higher Education, 19:4, 432-445, DOI: 10.1080/13562517.2012.752728</t>
     </r>
   </si>
   <si>
@@ -906,7 +1387,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     MAYR, E.  ¿Qué es la ciencia? In: _____ Así es la biologia. Madrid: Editorial Debate, S.A., 1998. p. 39-59.</t>
+      <t>     Blome C, Sondermann H, Augustin M. Accepted standards on how to give a Medical Research Presentation: a systematic review of expert opinion papers. GMS J Med Educ. 2017 Feb 15;34(1):Doc11. doi: 10.3205/zma001088.</t>
     </r>
   </si>
   <si>
@@ -921,28 +1402,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     McINERNY, D.Q. Use a lógica: Um guia para o pensamento eficaz. Rio de Janeiro: Best</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Seller</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 2010.</t>
+      <t>      Corwin LA, Prunuske A, Seidel SB. Scientific Presenting: Using Evidence-Based Classroom Practices to Deliver Effective Conference Presentations. CBE Life Sci Educ. 2018 Spring;17(1):es1. doi: 10.1187/cbe.17-07-0146.</t>
     </r>
   </si>
   <si>
@@ -957,276 +1417,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>     POPPER, K. Colocação de alguns problemas fundamentais. In: _____ A lógica da pesquisa científica. São Paulo: Cultrix, 2013. p. 27-44.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     TOLSTÓI, L. Ciência moderna. In: _____. Os últimos dias. São Paulo: Penguin Classics Companhia das Letras, 2011. p. 124-134.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Altman, D. G.; Simera, I.; Hoey, J.; Moher, D.; Schulz, K. EQUATOR: reporting guidelines for health research. Open Med, 2008, v. 2, n. 2, p. e49-50.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Annesley, T. M. "It was a cold and rainy night": set the scene with a good introduction. Clin Chem, May 2010, v. 56, n. 5, p. 708-13.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Mensh B, Kording K (2017) Ten simple rules for structuring papers. PLoS Comput Biol 13(9): e1005619. https://doi.org/10.1371/journal. pcbi.1005619</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Pereira, M.G. A seção de método de um artigo científico. Epidemiol. Sev. Saúde 2013; 22(1):183-184.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Pereira, M.G. A seção de resultados de um artigo científico. Epidemiol. Sev. Saúde 2013; 22(2):353-354.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Pereira, M.G. Dez passos para produzir um artigo científico de sucesso. Epidemiol. Sev. Saúde 2017; 26(3):661-664.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Pereira, M.G. Estrutura do artigo científico. Epidemiol. Sev. Saúde 2012; 21(2):351-352.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Skelton, J. R.; Edwards, S. J. The function of the discussion section in academic medical writing. BMJ, May 6 2000, v. 320, n. 7244, p. 1269-70.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  Vanden Bos, G. R. (Ed). (2010). Publication manual of the American Psychological Association (6th ed.). Washington, DC: American Psychological Association.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>      Blome C, Sondermann H, Augustin M. Accepted standards on how to give a Medical Research Presentation: a systematic review of expert opinion papers. GMS J Med Educ. 2017 Feb 15;34(1):Doc11. doi: 10.3205/zma001088.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>      Miquel J, Santana F, Barrera A, Torrens C. How do we deliver our findings? Analysis of podium presentations at shoulder meetings. J Orthop Surg Res. 2018 Sep 14;13(1):234. doi: 10.1186/s13018-018-0942-7.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>      Corwin LA, Prunuske A, Seidel SB. Scientific Presenting: Using Evidence-Based Classroom Practices to Deliver Effective Conference Presentations. CBE Life Sci Educ. 2018 Spring;17(1):es1. doi: 10.1187/cbe.17-07-0146.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>      Thor D, Xiao N, Zheng M, Ma R, Yu XX. An interactive online approach to small-group student presentations and discussions. Adv Physiol Educ. 2017 Dec 1;41(4):498-504. doi: 10.1152/advan.00019.2017.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>      Vogel WH, Viale PH. Presenting With Confidence. J Adv Pract Oncol. 2018 Jul-Aug;9(5):545-548.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -1238,241 +1428,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Grech V. Presenting scientific work-news media theory in presentations, abstracts, and posters. Saudi J Anaesth. 2019 Apr;13(Suppl 1):S59-S62. doi: 10.4103/sja.SJA_556_18.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>      Nascimento DP, Gonzalez GZ, Araujo AC, Moseley AM, Maher CG, Costa LOP. Eight Out of Every Ten Abstracts of Low Back Pain Systematic Reviews Presented Spin and Inconsistencies With the Full Text: An Analysis of 66 Systematic Reviews. J Orthop Sports Phys Ther. 2020 Jan;50(1):17-23. doi: 10.2519/jospt.2020.8962.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     Knudson DV, Morrison CS. Análise qualitativa do movimento humano. São Paulo: Manole, 2001. 3. Gordon Robertson, Graham Caldwell, Joseph Hamill, Saunders Whittlesey. Research Methods In Biomechanics 2nd Edition, 2014 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">     Perry J. Análise de marcha, marcha normal, patológica e sistema de análise (Volume 1, 2 3,). São Paulo: Manole, 2004. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Soderberg GL, Knustson LM. A guide for use and interpretation of kinesiologic electromyographic data. Physical Therapy 2000; 80(5): 485- 498.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Garcia MAC, TMM Vieira. Surface electromyography: Why, When and how to use it. Revista Andaluza de Medicina de Deporte 2011; 4(1): 17-28.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Dos Anjos F, Lemos T, Imbiriba LA. Does the type of visual feedback information change the control of standing balance? European Journal of Applied Physiology 2016; 116(9): 1771-1779.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Leardini A, Belvedere C, Nardini F, Sancisi N, Conconi M, Parenti-Castelli V. Kinematic models of lower limb joints for musculo-skeletal modelling and optimization in gait analysis. J Biomech. 2017;62:77-86.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     de los Reyes-Guzman A, Dimbwadyo-Terrer I, Trincado-Alonso F, Monasterio-Huelin F, Torricelli D, Gil-Agudo A. Quantitative assessment based on kinematic measures of functional impairments during upper extremity movements: A review. Clin Biomech (Bristol, Avon). 2014;29(7):719-27.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Visser JE, Carpenter MG, van der Kooij H, Bloem BR. The clinical utility of posturography. Clin Neurophysiol 119(11):2424-2436, 2008.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Enoka R. Neuromechanics of Human Movement. Human Kinetics, 5rd., 2014.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Helen Basturkmen, Martin East &amp; John Bitchener (2014) Supervisors' on-script feedback comments on drafts of dissertations: socialising students into the academic discourse community, Teaching in Higher Education, 19:4, 432-445, DOI: 10.1080/13562517.2012.752728</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     Blome C, Sondermann H, Augustin M. Accepted standards on how to give a Medical Research Presentation: a systematic review of expert opinion papers. GMS J Med Educ. 2017 Feb 15;34(1):Doc11. doi: 10.3205/zma001088.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>      Corwin LA, Prunuske A, Seidel SB. Scientific Presenting: Using Evidence-Based Classroom Practices to Deliver Effective Conference Presentations. CBE Life Sci Educ. 2018 Spring;17(1):es1. doi: 10.1187/cbe.17-07-0146.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF212121"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Grech V. Presenting scientific work-news media theory in presentations, abstracts, and posters. Saudi J Anaesth. 2019 Apr;13(Suppl 1):S59-S62. doi: 10.4103/sja.SJA_556_18.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>     LIMA, T. R. L.; KASUKI, L.; GADELHA, M.; LOPES A. J. Physical exercise improves functional capacity and quality of life in patients with acromegaly: a 12-week follow-up study. Endocrine, v. 66, n. 2, pp. 301-309, 2019. DOI: 10.1007/s12020-019-02011-x</t>
     </r>
   </si>
   <si>
@@ -2743,6 +2698,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1aqO9Pc2rAvlEGo86O6EVBAJL2CMBS_Eq</t>
+  </si>
+  <si>
+    <t>7.     PINTO-BUSTAMANTE, B. J.; RIAÑO-MORENO, J. C.; CLAVIJO-MONTOYA, H. A.; CÁRDENAS-GALINDO, M. A.; CAMPOS-FIGUEIREDO, W. D. Bioethics and artificial intelligence: between deliberation on values and rational choice theory. Frontiers and Robotics and AI, v. 10, pp. 1140901, 2023. DOI: 10.3389/frobt.2023.1140901</t>
+  </si>
+  <si>
+    <t>9.     HOFMANN B. Biases in bioethics: a narrative review. BMC Medical Ethics, v. 24, n. 1, pp. 17, 2023.doi: 10.1186/s12910-023-00894-0</t>
+  </si>
+  <si>
+    <t>1.    RIBEIRO MOÇO, V. J.; GULART, A. A.; LOPES, A. J.; DE SÁ FERREIRA, A.; DA FONSECA REIS, L. F. Minimal-resource home exercise program improves activities of daily living, perceived health status, and shortness of breath in individuals with COPD stages GOLD II to IV. COPD, v. 20, n. 1, pp. 298-306, 2023. DOI: 10.1080/15412555.2023.2253907</t>
   </si>
 </sst>
 </file>
@@ -5573,9 +5537,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5613,9 +5577,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5648,26 +5612,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5700,26 +5647,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5895,7 +5825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A53FF6B-77E2-0244-AF64-074339757D14}">
   <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5989,7 +5919,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -5997,7 +5927,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6005,7 +5935,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6013,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6021,7 +5951,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6029,7 +5959,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6037,7 +5967,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6045,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6053,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6061,7 +5991,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6112,12 +6042,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6125,15 +6055,15 @@
         <v>19</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6141,7 +6071,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6149,7 +6079,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6157,7 +6087,7 @@
         <v>15</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6165,7 +6095,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6173,7 +6103,7 @@
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6181,7 +6111,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6189,7 +6119,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6197,7 +6127,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6205,7 +6135,7 @@
         <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6213,7 +6143,7 @@
         <v>15</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6221,7 +6151,7 @@
         <v>15</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6229,7 +6159,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6237,7 +6167,7 @@
         <v>20</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6245,7 +6175,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6253,7 +6183,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6261,7 +6191,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6269,7 +6199,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6277,7 +6207,7 @@
         <v>20</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6285,7 +6215,7 @@
         <v>4</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6293,7 +6223,7 @@
         <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6301,7 +6231,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6309,7 +6239,7 @@
         <v>4</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6317,7 +6247,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6325,7 +6255,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6333,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6341,7 +6271,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6349,7 +6279,7 @@
         <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6357,7 +6287,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -6365,7 +6295,7 @@
         <v>2</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -6373,7 +6303,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6381,7 +6311,7 @@
         <v>2</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6389,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -6397,7 +6327,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -6405,7 +6335,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6413,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -6421,7 +6351,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6429,7 +6359,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.15">
@@ -6437,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6445,7 +6375,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6453,7 +6383,7 @@
         <v>5</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6461,7 +6391,7 @@
         <v>5</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6469,7 +6399,7 @@
         <v>5</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6485,7 +6415,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6493,7 +6423,7 @@
         <v>5</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6501,7 +6431,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6509,7 +6439,7 @@
         <v>5</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6517,7 +6447,7 @@
         <v>5</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6525,7 +6455,7 @@
         <v>16</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6533,7 +6463,7 @@
         <v>16</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6541,7 +6471,7 @@
         <v>16</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6549,7 +6479,7 @@
         <v>16</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6557,7 +6487,7 @@
         <v>16</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6565,7 +6495,7 @@
         <v>16</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6573,7 +6503,7 @@
         <v>13</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6581,7 +6511,7 @@
         <v>13</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6589,7 +6519,7 @@
         <v>13</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6597,7 +6527,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6605,7 +6535,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6613,7 +6543,7 @@
         <v>13</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6621,7 +6551,7 @@
         <v>13</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6629,7 +6559,7 @@
         <v>13</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6645,7 +6575,7 @@
         <v>13</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6653,7 +6583,7 @@
         <v>17</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6661,7 +6591,7 @@
         <v>17</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6669,7 +6599,7 @@
         <v>17</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6677,7 +6607,7 @@
         <v>17</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6685,7 +6615,7 @@
         <v>17</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6693,7 +6623,7 @@
         <v>17</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6701,7 +6631,7 @@
         <v>17</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6709,7 +6639,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6717,7 +6647,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6725,7 +6655,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6733,7 +6663,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -6741,7 +6671,7 @@
         <v>10</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6749,7 +6679,7 @@
         <v>10</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6757,7 +6687,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6765,7 +6695,7 @@
         <v>10</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6773,7 +6703,7 @@
         <v>10</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6781,7 +6711,7 @@
         <v>9</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6789,7 +6719,7 @@
         <v>9</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6797,7 +6727,7 @@
         <v>9</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6805,7 +6735,7 @@
         <v>9</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6813,7 +6743,7 @@
         <v>9</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6821,7 +6751,7 @@
         <v>9</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6829,7 +6759,7 @@
         <v>9</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6837,7 +6767,7 @@
         <v>9</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6845,7 +6775,7 @@
         <v>9</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6869,7 +6799,7 @@
         <v>14</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6877,7 +6807,7 @@
         <v>14</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6885,7 +6815,7 @@
         <v>14</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6893,7 +6823,7 @@
         <v>14</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6901,7 +6831,7 @@
         <v>24</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6909,7 +6839,7 @@
         <v>24</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6917,7 +6847,7 @@
         <v>24</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6925,7 +6855,7 @@
         <v>24</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="34" x14ac:dyDescent="0.2">
@@ -6933,7 +6863,7 @@
         <v>24</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6941,7 +6871,7 @@
         <v>24</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -6949,7 +6879,7 @@
         <v>24</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6981,7 +6911,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6989,7 +6919,7 @@
         <v>7</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6997,7 +6927,7 @@
         <v>7</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7005,7 +6935,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7021,7 +6951,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7029,7 +6959,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7037,7 +6967,7 @@
         <v>7</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7045,7 +6975,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7053,7 +6983,7 @@
         <v>8</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7061,7 +6991,7 @@
         <v>8</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7069,7 +6999,7 @@
         <v>8</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7077,7 +7007,7 @@
         <v>8</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7085,7 +7015,7 @@
         <v>8</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7093,7 +7023,7 @@
         <v>8</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7101,7 +7031,7 @@
         <v>8</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7109,7 +7039,7 @@
         <v>8</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7117,7 +7047,7 @@
         <v>8</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7125,7 +7055,7 @@
         <v>11</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7133,7 +7063,7 @@
         <v>11</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7141,7 +7071,7 @@
         <v>11</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7149,7 +7079,7 @@
         <v>11</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="18" x14ac:dyDescent="0.2">
@@ -7157,7 +7087,7 @@
         <v>11</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7165,7 +7095,7 @@
         <v>11</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7173,7 +7103,7 @@
         <v>11</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7181,7 +7111,7 @@
         <v>12</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7189,7 +7119,7 @@
         <v>12</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7197,7 +7127,7 @@
         <v>12</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7205,7 +7135,7 @@
         <v>12</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7213,7 +7143,7 @@
         <v>12</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="48" x14ac:dyDescent="0.2">
@@ -7229,7 +7159,7 @@
         <v>18</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7237,7 +7167,7 @@
         <v>18</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7245,7 +7175,7 @@
         <v>18</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7253,7 +7183,7 @@
         <v>18</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7261,7 +7191,7 @@
         <v>18</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7269,7 +7199,7 @@
         <v>18</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7277,7 +7207,7 @@
         <v>18</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7285,7 +7215,7 @@
         <v>18</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7293,7 +7223,7 @@
         <v>18</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7301,7 +7231,7 @@
         <v>18</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7309,7 +7239,7 @@
         <v>6</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7317,7 +7247,7 @@
         <v>6</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7325,7 +7255,7 @@
         <v>6</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7333,7 +7263,7 @@
         <v>6</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7341,7 +7271,7 @@
         <v>6</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7349,7 +7279,7 @@
         <v>6</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7357,7 +7287,7 @@
         <v>6</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7365,7 +7295,7 @@
         <v>6</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -7373,7 +7303,7 @@
         <v>6</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -7389,7 +7319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C7F29-06ED-8E48-8953-73E27C08C069}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7401,24 +7331,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Bibliografia.xlsx
+++ b/docs/PPG/Bibliografia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745EA803-6896-964B-984D-EF9AC55046D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3659CE1D-2495-5A49-B560-8B4AF53148D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bibliografia" sheetId="53" r:id="rId1"/>
@@ -2691,15 +2691,9 @@
     <t>Abrir</t>
   </si>
   <si>
-    <t>2022-1</t>
-  </si>
-  <si>
     <t>Estrutura curricular</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1aqO9Pc2rAvlEGo86O6EVBAJL2CMBS_Eq</t>
-  </si>
-  <si>
     <t>7.     PINTO-BUSTAMANTE, B. J.; RIAÑO-MORENO, J. C.; CLAVIJO-MONTOYA, H. A.; CÁRDENAS-GALINDO, M. A.; CAMPOS-FIGUEIREDO, W. D. Bioethics and artificial intelligence: between deliberation on values and rational choice theory. Frontiers and Robotics and AI, v. 10, pp. 1140901, 2023. DOI: 10.3389/frobt.2023.1140901</t>
   </si>
   <si>
@@ -2707,15 +2701,28 @@
   </si>
   <si>
     <t>1.    RIBEIRO MOÇO, V. J.; GULART, A. A.; LOPES, A. J.; DE SÁ FERREIRA, A.; DA FONSECA REIS, L. F. Minimal-resource home exercise program improves activities of daily living, perceived health status, and shortness of breath in individuals with COPD stages GOLD II to IV. COPD, v. 20, n. 1, pp. 298-306, 2023. DOI: 10.1080/15412555.2023.2253907</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-_lbtR7-U52T2z27CMpfw7Yigh4hRlPP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2867,1316 +2874,1316 @@
   </borders>
   <cellStyleXfs count="1307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4188,23 +4195,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="1304" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1304" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1304" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1304"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1306"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1304" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1304" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1304" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1304"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1306"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1304" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1307">
     <cellStyle name="Hiperlink" xfId="63" builtinId="8" hidden="1"/>
@@ -5825,7 +5833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A53FF6B-77E2-0244-AF64-074339757D14}">
   <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6047,7 +6055,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -6063,7 +6071,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -6831,7 +6839,7 @@
         <v>24</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -7319,7 +7327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552C7F29-06ED-8E48-8953-73E27C08C069}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7341,19 +7349,19 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{63AF5609-1F3E-A84A-AA1C-CA8B7C063455}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{34F48C67-879A-7844-9F2A-0295E6E3071B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Bibliografia.xlsx
+++ b/docs/PPG/Bibliografia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5264794C-29D9-6446-89F7-CAFB421794DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4467BE-393A-EF44-BA8A-183314660C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bibliografia" sheetId="53" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="234">
   <si>
     <t>Disciplina</t>
   </si>
@@ -822,10 +822,37 @@
     <t>Medidas e Avaliação no Esporte e no Esporte Adaptado</t>
   </si>
   <si>
-    <t xml:space="preserve">3. McArdle WD, Katch FI, Katch VL. Fisiologia do Exercício. Energia, Nutrição e Desempenho Humano 4ed. Rio de Janeiro: Guanabara Koogan, 2008. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. de Salles, BF, Maior, AS, Polito, M, Novaes, J, Alexander, J, Rhea, M, and Simão, R. Influence of rest interval lengths on hypotensive response after strength training sessions performed by older men. J Strength Cond Res 24(11): 3049–3054, 2010. </t>
+    <t xml:space="preserve">1.     CASTRO, P. M. A. L.; FERREIRA, A. S.; LOPES, A. J.; PAULA, T.; COSTA, R. M. R.; CUNHA, F. A.; VIGÁRIO, P. P. Validity of the Polar V800 heart rate monitor for assessing cardiac autonomic control in individuals with spinal cord injury. Motriz. 2021;27:e1021003221. doi.org/10.1590/S1980-65742021003221.  </t>
+  </si>
+  <si>
+    <t>2.     COSTA, R. M. R.; CASTRO, P. M. A. L.; SANTOS, M. A.; MAINENTI, M. R. M.; LOPES, A. J. L.; VIGÁRIO, P. S. Aptidão cardiorrespiratória durante o teste cardiopulmonar de esforço de indivíduos com amputação unilateral de membro inferior. Rev. Bras. Fisiol. Exerc. 2021; 20:542 – 551. doi:10.33233/rbfex.v20i5.4824.</t>
+  </si>
+  <si>
+    <t>3.     GORLA, J.I.; ARAÚJO, P. F.; RODRIGUES, J. L. Avaliação motora em educação física adaptada. 2ed. São Paulo: Phorte Editora, 2009.</t>
+  </si>
+  <si>
+    <t>4.     JERONYMO, B.F.; SILVA, P.R.O.; MAINENTI, M.; FELICIO, L.R.; FERREIRA, A.S.; CARVALHO, T.L.; VIGÁRIO, P. The relationship between postural stability, anthropometry measurements, body composition, and sports experience in judokas with visual impairments. Asian J. Sports Med. 2020; 11(3):e103030. doi:10.5812/asjsm.103030.</t>
+  </si>
+  <si>
+    <t>5.     LEMOS, T.; NOGUEIRA, F.S.; POMPEU, F.A.M.S. Influência do protocolo ergométrico na ocorrência de diferentes critérios de esforço máximo. Rev. Bras. Med. Esporte. 2011; 17(2):18-21. doi: 10.1590/S1517-86922011000100003.</t>
+  </si>
+  <si>
+    <t>6.     MORROW Jr, J.R.; JACKSON, A.W.; DISCH, J.G.; MOOD, D.P. Medida e avaliação do desempenho humano, 2ed. Porto Alegre: Artmed, 2003</t>
+  </si>
+  <si>
+    <t>7.     MUNSTER, M. A. Educação física e esportes adaptados. Programas de ensino e subsídios para a inclusão. São Paulo: Manole, 2023.</t>
+  </si>
+  <si>
+    <t>8.     PROESP-BR Projeto Esporte Brasil. Adaptação das avaliações e medidas para crianças com deficiência. Disponível em: https://www.ufrgs.br/proesp/PROESP-adaptado.php. Acesso em: 13 de agosto de 2024.</t>
+  </si>
+  <si>
+    <t>9.     PROESP-BR Projeto Esporte Brasil. Disponível em: https://www.ufrgs.br/proesp/. Acesso em: 08 de julho de 2024.</t>
+  </si>
+  <si>
+    <t>10.  SANTOS, C.N.; CARVALHO, T.L.; FELÍCIO, L.R., MAINENTI, M.R.M.; VIGÁRIO, P.S. Postural control in athletes with different degrees of visual impairment. J. Phys. Educ. 2018; 29:e2936. doi:10.4025/jphyseduc.v29i1.2936.</t>
+  </si>
+  <si>
+    <t>11. SANTOS, P.B.R.; VIGÁRIO, P.S.; MAINENTI, M.R.M.; FERREIRA, A.S.; LEMOS, T. Seated limits-of-stability of athletes with disabilities with regard to competitive levels and sports classification. Scand. J. Med. Sci. Sports. 2017; 27(12):2019-2026. doi:10.1111/sms.12847.</t>
   </si>
 </sst>
 </file>
@@ -2285,7 +2312,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1304" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1304" applyFont="1"/>
@@ -2293,44 +2320,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1304"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1306"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1304" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1307">
@@ -3950,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A53FF6B-77E2-0244-AF64-074339757D14}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6650,32 +6683,32 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>222</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D193" s="8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>222</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D194" s="8">
-        <v>2006</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6683,27 +6716,27 @@
         <v>222</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D195" s="8">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>222</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C196" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D196" s="8">
-        <v>2010</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6711,7 +6744,7 @@
         <v>222</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C197" s="12" t="s">
         <v>50</v>
@@ -6725,13 +6758,13 @@
         <v>222</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D198" s="8">
-        <v>2012</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6739,13 +6772,13 @@
         <v>222</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D199" s="8">
-        <v>2013</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6753,27 +6786,55 @@
         <v>222</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D200" s="8">
-        <v>2019</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A201" s="10" t="s">
+      <c r="A201" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="B201" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C201" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D201" s="10">
-        <v>2009</v>
+      <c r="B201" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C201" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D201" s="20">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A202" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C202" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D202" s="20">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A203" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D203" s="10">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
